--- a/Chapter_04/Chapter_4_Table_S4.17.xlsx
+++ b/Chapter_04/Chapter_4_Table_S4.17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtuser\OneDrive - National University of Ireland, Galway\Desktop\Dropbox\@John O'Grady\@Thesis\Supplementary\Chapter_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99FDB9DC-D043-480E-B9BD-E74821E2F86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88539E8C-6B8D-4D4A-9A4A-01E4DDACFCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-1830" windowWidth="29040" windowHeight="15720" xr2:uid="{335339CF-211B-4E59-9248-B46DB3E85F19}"/>
+    <workbookView xWindow="20370" yWindow="-1815" windowWidth="29040" windowHeight="15720" xr2:uid="{9EA6005F-80FA-48D8-8E21-87A1AF8CD4C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter_4_Table_S4.17" sheetId="1" r:id="rId1"/>
@@ -59,16 +59,16 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>Pass 1</t>
-  </si>
-  <si>
-    <t>Pass 2</t>
-  </si>
-  <si>
-    <t>Combined</t>
-  </si>
-  <si>
-    <t>Study</t>
+    <t>13-gene set</t>
+  </si>
+  <si>
+    <t>17-gene set</t>
+  </si>
+  <si>
+    <t>30-gene set</t>
+  </si>
+  <si>
+    <t>Dataset</t>
   </si>
   <si>
     <t>Condition</t>
@@ -80,7 +80,7 @@
     <t>C007</t>
   </si>
   <si>
-    <t>O'Grady et al., (2025)</t>
+    <t>OGR25-BTB</t>
   </si>
   <si>
     <t>Control</t>
@@ -209,7 +209,7 @@
     <t>A017_CON</t>
   </si>
   <si>
-    <t>McLoughlin et al., (2014)</t>
+    <t>MCL14-BTB</t>
   </si>
   <si>
     <t>A018_CON</t>
@@ -227,7 +227,7 @@
     <t>846_Control_W0</t>
   </si>
   <si>
-    <t>Wiarda et al., (2020)</t>
+    <t>WIA20-BTB</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -251,7 +251,7 @@
     <t>A6635_W-1</t>
   </si>
   <si>
-    <t>McLoughlin et al., (2021)</t>
+    <t>MCL21-BTB</t>
   </si>
   <si>
     <t>A6636_W-1</t>
@@ -579,16 +579,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DC9FF1-2EBE-409F-A280-985A0567992A}" name="Table17" displayName="Table17" ref="A2:G70" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0104300F-004A-4E38-BDB0-FC61D6163C28}" name="Table17" displayName="Table17" ref="A2:G70" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A2:G70" xr:uid="{53B7D5FC-3977-4177-86EF-FE250A8D0FE9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F29B3F8E-8241-42D7-8DAB-964415D0370D}" name="Sample" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{18B2102D-D04A-4915-8AFF-DECA66BC169B}" name="Pass 1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C90337CA-93F8-45C3-93C6-BA2665CDCA3E}" name="Pass 2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{12154F31-AD89-48E3-AB6D-7B57B5DFA5C0}" name="Combined" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D7EC36D6-843D-4888-9604-EF9F3231059C}" name="Study" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{CACC0E02-9DA7-4A3D-B040-8CF8F5FE4D7A}" name="Condition" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{AA957C55-B5CC-474C-B6E1-039AE423CA47}" name="Infection acquisition" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{49A03280-BC45-4B77-A959-272F2D18018A}" name="Sample" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C641736C-3483-4E4E-82C7-0896114AFF69}" name="13-gene set" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7EFE92BE-BDB3-4790-8534-3849820F161C}" name="17-gene set" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{22DBD752-DBCC-4AC3-AFAB-38E4818DDF61}" name="30-gene set" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{CF417136-EAB7-4B3F-86ED-F4ECC4ADFE3D}" name="Dataset" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{904D88C8-4BE7-4D4E-B9BC-3A0AD0B6429C}" name="Condition" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C34447B0-E6BF-412B-B7B0-D875F6382360}" name="Infection acquisition" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -910,12 +910,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F57CDB-860E-4CA3-B5F7-3D580F9416C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830A412E-C583-48D1-BB80-FB7B455A6098}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,17 +947,17 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -970,17 +970,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -993,17 +993,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1016,18 +1016,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
@@ -1039,17 +1039,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1062,17 +1062,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1085,17 +1085,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1108,17 +1108,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1131,17 +1131,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1154,18 +1154,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>9</v>
@@ -1177,17 +1177,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1200,17 +1200,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1223,17 +1223,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1246,17 +1246,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1269,17 +1269,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1292,17 +1292,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1315,17 +1315,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1338,18 +1338,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>9</v>
@@ -1361,18 +1361,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>9</v>
@@ -1384,18 +1384,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>9</v>
@@ -1407,17 +1407,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1430,17 +1430,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1453,17 +1453,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -1476,17 +1476,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -1499,17 +1499,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1522,17 +1522,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -1545,17 +1545,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1568,18 +1568,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>9</v>
@@ -1591,17 +1591,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -1615,18 +1615,18 @@
       </c>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>9</v>
@@ -1638,17 +1638,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -1661,17 +1661,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -1684,17 +1684,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -1707,17 +1707,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -1730,17 +1730,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -1753,17 +1753,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -1776,17 +1776,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -1799,17 +1799,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="5">
-        <v>0</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -1822,17 +1822,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -1845,18 +1845,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="5">
-        <v>0</v>
-      </c>
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>9</v>
@@ -1868,17 +1868,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="5">
-        <v>0</v>
-      </c>
-      <c r="C42" s="5">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -1891,17 +1891,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="5">
-        <v>0</v>
-      </c>
-      <c r="C43" s="5">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -1914,17 +1914,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="5">
-        <v>0</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
@@ -1937,17 +1937,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -1960,17 +1960,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -1983,17 +1983,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="5">
-        <v>0</v>
-      </c>
-      <c r="C47" s="5">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -2006,17 +2006,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48" s="5">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2029,17 +2029,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="5">
-        <v>0</v>
-      </c>
-      <c r="C49" s="5">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -2052,18 +2052,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0</v>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>58</v>
@@ -2075,17 +2075,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="5">
-        <v>0</v>
-      </c>
-      <c r="C51" s="5">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -2098,17 +2098,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52" s="5">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -2121,18 +2121,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="5">
-        <v>0</v>
-      </c>
-      <c r="C53" s="5">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0</v>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>66</v>
@@ -2144,17 +2144,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="5">
-        <v>0</v>
-      </c>
-      <c r="C54" s="5">
-        <v>1</v>
-      </c>
-      <c r="D54" s="4">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -2167,17 +2167,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55" s="5">
-        <v>1</v>
-      </c>
-      <c r="D55" s="4">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -2190,17 +2190,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56" s="5">
-        <v>1</v>
-      </c>
-      <c r="D56" s="4">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -2213,17 +2213,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="D57" s="4">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -2236,17 +2236,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58" s="5">
-        <v>1</v>
-      </c>
-      <c r="D58" s="4">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -2259,17 +2259,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59" s="5">
-        <v>1</v>
-      </c>
-      <c r="D59" s="4">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -2282,17 +2282,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60" s="5">
-        <v>1</v>
-      </c>
-      <c r="D60" s="4">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -2305,17 +2305,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="5">
-        <v>1</v>
-      </c>
-      <c r="C61" s="5">
-        <v>1</v>
-      </c>
-      <c r="D61" s="4">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -2328,17 +2328,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62" s="5">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -2351,17 +2351,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="5">
-        <v>1</v>
-      </c>
-      <c r="C63" s="5">
-        <v>1</v>
-      </c>
-      <c r="D63" s="4">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -2374,17 +2374,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="5">
-        <v>1</v>
-      </c>
-      <c r="C64" s="5">
-        <v>1</v>
-      </c>
-      <c r="D64" s="4">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -2397,17 +2397,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="5">
-        <v>1</v>
-      </c>
-      <c r="C65" s="5">
-        <v>1</v>
-      </c>
-      <c r="D65" s="4">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -2420,17 +2420,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="5">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5">
-        <v>1</v>
-      </c>
-      <c r="D66" s="4">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -2443,17 +2443,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="5">
-        <v>1</v>
-      </c>
-      <c r="C67" s="5">
-        <v>1</v>
-      </c>
-      <c r="D67" s="4">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -2466,17 +2466,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="5">
-        <v>1</v>
-      </c>
-      <c r="C68" s="5">
-        <v>1</v>
-      </c>
-      <c r="D68" s="4">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -2488,21 +2488,19 @@
       <c r="G68" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O68" s="7">
-        <v>8.8235294117647065E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="7"/>
+    </row>
+    <row r="69" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="5">
-        <v>1</v>
-      </c>
-      <c r="C69" s="5">
-        <v>1</v>
-      </c>
-      <c r="D69" s="4">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -2515,17 +2513,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="5">
-        <v>1</v>
-      </c>
-      <c r="C70" s="5">
-        <v>1</v>
-      </c>
-      <c r="D70" s="4">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" s="5" t="s">
